--- a/WorkshopAttendanceResearchPaper.xlsx
+++ b/WorkshopAttendanceResearchPaper.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="547">
   <si>
     <t>Username</t>
   </si>
@@ -1430,6 +1430,231 @@
   </si>
   <si>
     <t>PGI20CA027</t>
+  </si>
+  <si>
+    <t>Ankit Khemani</t>
+  </si>
+  <si>
+    <t>PIET20AD005</t>
+  </si>
+  <si>
+    <t>PIET20AD010</t>
+  </si>
+  <si>
+    <t>Chetan Sharma</t>
+  </si>
+  <si>
+    <t>Pragati Porwa</t>
+  </si>
+  <si>
+    <t>PIET20AD034</t>
+  </si>
+  <si>
+    <t>PIET20AD044</t>
+  </si>
+  <si>
+    <t>Ritik Sahu</t>
+  </si>
+  <si>
+    <t>Sushil Kumar</t>
+  </si>
+  <si>
+    <t>PIET20AD057</t>
+  </si>
+  <si>
+    <t>PIER20CS208</t>
+  </si>
+  <si>
+    <t>Gargi</t>
+  </si>
+  <si>
+    <t>Ms. Shagun</t>
+  </si>
+  <si>
+    <t>PIET20CS030</t>
+  </si>
+  <si>
+    <t>PIET20AD052</t>
+  </si>
+  <si>
+    <t>Shubham Singh</t>
+  </si>
+  <si>
+    <t>Yash Kumar Bhatia</t>
+  </si>
+  <si>
+    <t>PIET20AD061</t>
+  </si>
+  <si>
+    <t>PIET20AD029</t>
+  </si>
+  <si>
+    <t>Manav Kumar</t>
+  </si>
+  <si>
+    <t>Prakhar Jain</t>
+  </si>
+  <si>
+    <t>PIET20AD035</t>
+  </si>
+  <si>
+    <t>PIET20AD033</t>
+  </si>
+  <si>
+    <t>Ojasvi Sharma</t>
+  </si>
+  <si>
+    <t>Rahul Lakhotiya</t>
+  </si>
+  <si>
+    <t>PIET20AD041</t>
+  </si>
+  <si>
+    <t>PIET20AD043</t>
+  </si>
+  <si>
+    <t>Rajenra Choudhary</t>
+  </si>
+  <si>
+    <t>Gaurav Singh</t>
+  </si>
+  <si>
+    <t>PGI20CS024</t>
+  </si>
+  <si>
+    <t>PIET20AD045</t>
+  </si>
+  <si>
+    <t>Rohit Singh Tanwar</t>
+  </si>
+  <si>
+    <t>Sourav Sharma</t>
+  </si>
+  <si>
+    <t>PIET20AD053</t>
+  </si>
+  <si>
+    <t>PIET20AD022</t>
+  </si>
+  <si>
+    <t>Joshi Dhiraj</t>
+  </si>
+  <si>
+    <t>Priyanshi Goyal</t>
+  </si>
+  <si>
+    <t>PIET20AD039</t>
+  </si>
+  <si>
+    <t>PIET20AD059</t>
+  </si>
+  <si>
+    <t>Vatsal Jangid</t>
+  </si>
+  <si>
+    <t>Subha</t>
+  </si>
+  <si>
+    <t>PIET20AD054</t>
+  </si>
+  <si>
+    <t>PGI20CS080</t>
+  </si>
+  <si>
+    <t>Sumit Tripathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham </t>
+  </si>
+  <si>
+    <t>Siddhi Harsh</t>
+  </si>
+  <si>
+    <t>PGI20CS077</t>
+  </si>
+  <si>
+    <t>Raman Tank</t>
+  </si>
+  <si>
+    <t>PGI20CS065</t>
+  </si>
+  <si>
+    <t>PGI20CS069</t>
+  </si>
+  <si>
+    <t>Sharad Kumar</t>
+  </si>
+  <si>
+    <t>Rahul Sharma</t>
+  </si>
+  <si>
+    <t>PGI20CS063</t>
+  </si>
+  <si>
+    <t>Rahul Borana</t>
+  </si>
+  <si>
+    <t>PGI20CS061</t>
+  </si>
+  <si>
+    <t>PGI20CS062</t>
+  </si>
+  <si>
+    <t>Rahul Luhar</t>
+  </si>
+  <si>
+    <t>Tushar Suman</t>
+  </si>
+  <si>
+    <t>PGI20CS082</t>
+  </si>
+  <si>
+    <t>PGI20AD015</t>
+  </si>
+  <si>
+    <t>Yash Nagal</t>
+  </si>
+  <si>
+    <t>Vishal Sharma</t>
+  </si>
+  <si>
+    <t>PGI20CS085</t>
+  </si>
+  <si>
+    <t>PGI20CS070</t>
+  </si>
+  <si>
+    <t>Shivam Vashisht</t>
+  </si>
+  <si>
+    <t>Aastha Kanwar</t>
+  </si>
+  <si>
+    <t>PGI20AD001</t>
+  </si>
+  <si>
+    <t>PGI20AD009</t>
+  </si>
+  <si>
+    <t>Prem Kumar</t>
+  </si>
+  <si>
+    <t>Yaduttam Pareek</t>
+  </si>
+  <si>
+    <t>PGI20CS086</t>
+  </si>
+  <si>
+    <t>PGI20CD011</t>
+  </si>
+  <si>
+    <t>Raghav Somani</t>
+  </si>
+  <si>
+    <t>Pulkit</t>
+  </si>
+  <si>
+    <t>PGI20AD010</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2293,7 +2518,7 @@
   <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2785,6 +3010,12 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>545</v>
+      </c>
+      <c r="C45" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
@@ -3119,6 +3350,12 @@
       <c r="A77" t="s">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>544</v>
+      </c>
+      <c r="C77" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
@@ -3261,6 +3498,12 @@
       <c r="A91" t="s">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>512</v>
+      </c>
+      <c r="C91" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
@@ -3277,6 +3520,12 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>541</v>
+      </c>
+      <c r="C93" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
@@ -3304,16 +3553,34 @@
       <c r="A96" t="s">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>540</v>
+      </c>
+      <c r="C96" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>511</v>
+      </c>
+      <c r="C97" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>508</v>
+      </c>
+      <c r="C98" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
@@ -3407,11 +3674,23 @@
       <c r="A107" t="s">
         <v>106</v>
       </c>
+      <c r="B107" t="s">
+        <v>507</v>
+      </c>
+      <c r="C107" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
+      <c r="B108" t="s">
+        <v>537</v>
+      </c>
+      <c r="C108" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
@@ -3461,11 +3740,23 @@
       <c r="A113" t="s">
         <v>112</v>
       </c>
+      <c r="B113" t="s">
+        <v>504</v>
+      </c>
+      <c r="C113" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
+      <c r="B114" t="s">
+        <v>503</v>
+      </c>
+      <c r="C114" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
@@ -3493,16 +3784,34 @@
       <c r="A117" t="s">
         <v>116</v>
       </c>
+      <c r="B117" t="s">
+        <v>536</v>
+      </c>
+      <c r="C117" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
+      <c r="B118" t="s">
+        <v>533</v>
+      </c>
+      <c r="C118" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
+      <c r="B119" t="s">
+        <v>500</v>
+      </c>
+      <c r="C119" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
@@ -3541,6 +3850,12 @@
       <c r="A123" t="s">
         <v>122</v>
       </c>
+      <c r="B123" t="s">
+        <v>499</v>
+      </c>
+      <c r="C123" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
@@ -3573,6 +3888,12 @@
       <c r="A127" t="s">
         <v>126</v>
       </c>
+      <c r="B127" t="s">
+        <v>496</v>
+      </c>
+      <c r="C127" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
@@ -3611,11 +3932,23 @@
       <c r="A131" t="s">
         <v>130</v>
       </c>
+      <c r="B131" t="s">
+        <v>495</v>
+      </c>
+      <c r="C131" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
+      <c r="B132" t="s">
+        <v>532</v>
+      </c>
+      <c r="C132" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
@@ -3654,6 +3987,12 @@
       <c r="A136" t="s">
         <v>135</v>
       </c>
+      <c r="B136" t="s">
+        <v>492</v>
+      </c>
+      <c r="C136" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
@@ -3681,6 +4020,12 @@
       <c r="A139" t="s">
         <v>138</v>
       </c>
+      <c r="B139" t="s">
+        <v>529</v>
+      </c>
+      <c r="C139" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
@@ -3702,11 +4047,23 @@
       <c r="A142" t="s">
         <v>141</v>
       </c>
+      <c r="B142" t="s">
+        <v>528</v>
+      </c>
+      <c r="C142" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
+      <c r="B143" t="s">
+        <v>525</v>
+      </c>
+      <c r="C143" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
@@ -3772,6 +4129,12 @@
       <c r="A150" t="s">
         <v>149</v>
       </c>
+      <c r="B150" t="s">
+        <v>523</v>
+      </c>
+      <c r="C150" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
@@ -3810,11 +4173,23 @@
       <c r="A154" t="s">
         <v>153</v>
       </c>
+      <c r="B154" t="s">
+        <v>491</v>
+      </c>
+      <c r="C154" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
+      <c r="B155" t="s">
+        <v>488</v>
+      </c>
+      <c r="C155" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
@@ -3842,6 +4217,12 @@
       <c r="A158" t="s">
         <v>157</v>
       </c>
+      <c r="B158" t="s">
+        <v>487</v>
+      </c>
+      <c r="C158" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
@@ -3858,11 +4239,23 @@
       <c r="A160" t="s">
         <v>159</v>
       </c>
+      <c r="B160" t="s">
+        <v>522</v>
+      </c>
+      <c r="C160" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
+      <c r="B161" t="s">
+        <v>484</v>
+      </c>
+      <c r="C161" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
@@ -3923,11 +4316,23 @@
       <c r="A167" t="s">
         <v>166</v>
       </c>
+      <c r="B167" t="s">
+        <v>483</v>
+      </c>
+      <c r="C167" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
+      <c r="B168" t="s">
+        <v>519</v>
+      </c>
+      <c r="C168" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
@@ -3944,6 +4349,12 @@
       <c r="A170" t="s">
         <v>169</v>
       </c>
+      <c r="B170" t="s">
+        <v>480</v>
+      </c>
+      <c r="C170" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
@@ -3971,6 +4382,12 @@
       <c r="A173" t="s">
         <v>172</v>
       </c>
+      <c r="B173" t="s">
+        <v>479</v>
+      </c>
+      <c r="C173" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
@@ -3987,6 +4404,12 @@
       <c r="A175" t="s">
         <v>174</v>
       </c>
+      <c r="B175" t="s">
+        <v>476</v>
+      </c>
+      <c r="C175" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
@@ -4013,16 +4436,34 @@
       <c r="A179" t="s">
         <v>178</v>
       </c>
+      <c r="B179" t="s">
+        <v>517</v>
+      </c>
+      <c r="C179" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
+      <c r="B180" t="s">
+        <v>475</v>
+      </c>
+      <c r="C180" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
+      <c r="B181" t="s">
+        <v>472</v>
+      </c>
+      <c r="C181" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
@@ -4061,6 +4502,12 @@
       <c r="A185" t="s">
         <v>184</v>
       </c>
+      <c r="B185" t="s">
+        <v>516</v>
+      </c>
+      <c r="C185" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
@@ -4076,6 +4523,12 @@
     <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>515</v>
+      </c>
+      <c r="C187" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="1:3">
